--- a/Src/DmaTest/DataFormat.xlsx
+++ b/Src/DmaTest/DataFormat.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\accou\Documents\Sources\github\TeensyBat\Src\DmaTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5992DB-74AE-4A38-BEB8-5970A5FBF2D4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7752310-13E3-44ED-8233-553E731149E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13965" activeTab="1" xr2:uid="{6C2554CE-49EA-437E-8B32-108DBC12CA6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{6C2554CE-49EA-437E-8B32-108DBC12CA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="446">
   <si>
     <t>xFF</t>
   </si>
@@ -1225,16 +1226,166 @@
   </si>
   <si>
     <t>Reserved 30</t>
+  </si>
+  <si>
+    <t>highFreqSampleCount</t>
+  </si>
+  <si>
+    <t>highPowerSampleCount</t>
+  </si>
+  <si>
+    <t>maxLevel</t>
+  </si>
+  <si>
+    <t>Additional Data 1.0</t>
+  </si>
+  <si>
+    <t>Additional Data 1.1</t>
+  </si>
+  <si>
+    <t>Additional Data 1.2</t>
+  </si>
+  <si>
+    <t>Additional Data 1.3</t>
+  </si>
+  <si>
+    <t>Additional Data 1.4</t>
+  </si>
+  <si>
+    <t>Additional Data 1.5</t>
+  </si>
+  <si>
+    <t>Additional Data 1.6</t>
+  </si>
+  <si>
+    <t>Additional Data 1.7</t>
+  </si>
+  <si>
+    <t>Additional Data 2.0</t>
+  </si>
+  <si>
+    <t>Additional Data 2.1</t>
+  </si>
+  <si>
+    <t>Additional Data 2.2</t>
+  </si>
+  <si>
+    <t>Additional Data 2.3</t>
+  </si>
+  <si>
+    <t>Additional Data 2.4</t>
+  </si>
+  <si>
+    <t>Additional Data 2.5</t>
+  </si>
+  <si>
+    <t>Additional Data 2.6</t>
+  </si>
+  <si>
+    <t>Additional Data 2.7</t>
+  </si>
+  <si>
+    <t>Additional Data 3.0</t>
+  </si>
+  <si>
+    <t>Additional Data 3.1</t>
+  </si>
+  <si>
+    <t>Additional Data 3.2</t>
+  </si>
+  <si>
+    <t>Additional Data 3.3</t>
+  </si>
+  <si>
+    <t>Additional Data 3.4</t>
+  </si>
+  <si>
+    <t>Additional Data 3.5</t>
+  </si>
+  <si>
+    <t>Additional Data 3.6</t>
+  </si>
+  <si>
+    <t>Additional Data 3.7</t>
+  </si>
+  <si>
+    <t>Additional Data 4.0</t>
+  </si>
+  <si>
+    <t>Additional Data 4.1</t>
+  </si>
+  <si>
+    <t>Additional Data 4.2</t>
+  </si>
+  <si>
+    <t>Additional Data 4.3</t>
+  </si>
+  <si>
+    <t>Additional Data 4.4</t>
+  </si>
+  <si>
+    <t>Additional Data 4.5</t>
+  </si>
+  <si>
+    <t>Additional Data 4.6</t>
+  </si>
+  <si>
+    <t>Additional Data 4.7</t>
+  </si>
+  <si>
+    <t>Additional Data 5.0</t>
+  </si>
+  <si>
+    <t>Additional Data 5.1</t>
+  </si>
+  <si>
+    <t>Additional Data 5.2</t>
+  </si>
+  <si>
+    <t>Additional Data 5.3</t>
+  </si>
+  <si>
+    <t>Additional Data 5.4</t>
+  </si>
+  <si>
+    <t>Additional Data 5.5</t>
+  </si>
+  <si>
+    <t>Additional Data 5.6</t>
+  </si>
+  <si>
+    <t>Additional Data 5.7</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>ErrCallBufferFull</t>
+  </si>
+  <si>
+    <t>ErrCallPointerBufferFull</t>
+  </si>
+  <si>
+    <t>ErrDataBufferFull</t>
+  </si>
+  <si>
+    <t>ErrProcessOverlap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -13369,17 +13520,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4294A7-901E-448A-A7A5-CFCE7A5B80DD}">
-  <dimension ref="A1:SR512"/>
+  <dimension ref="A1:F512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
     <col min="5" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="512" width="3.85546875" customWidth="1"/>
@@ -13529,7 +13680,7 @@
         <v>311</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>343</v>
@@ -13546,7 +13697,7 @@
         <v>312</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>344</v>
@@ -13563,7 +13714,7 @@
         <v>313</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>345</v>
@@ -13580,7 +13731,7 @@
         <v>314</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>346</v>
@@ -13597,7 +13748,7 @@
         <v>315</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>347</v>
@@ -13614,7 +13765,7 @@
         <v>316</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>348</v>
@@ -13631,7 +13782,7 @@
         <v>317</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>349</v>
@@ -13648,7 +13799,7 @@
         <v>318</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>350</v>
@@ -13665,7 +13816,7 @@
         <v>319</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>351</v>
@@ -13682,7 +13833,7 @@
         <v>320</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>352</v>
@@ -13699,7 +13850,7 @@
         <v>321</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>353</v>
@@ -13716,7 +13867,7 @@
         <v>322</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>354</v>
@@ -13733,7 +13884,7 @@
         <v>323</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>355</v>
@@ -13750,7 +13901,7 @@
         <v>324</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>356</v>
@@ -13767,7 +13918,7 @@
         <v>325</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>357</v>
@@ -13784,7 +13935,7 @@
         <v>326</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>358</v>
@@ -13801,7 +13952,7 @@
         <v>327</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>359</v>
@@ -13818,7 +13969,7 @@
         <v>328</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>360</v>
@@ -13835,7 +13986,7 @@
         <v>329</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>361</v>
@@ -13852,7 +14003,7 @@
         <v>330</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>362</v>
@@ -13869,7 +14020,7 @@
         <v>331</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>363</v>
@@ -13886,7 +14037,7 @@
         <v>332</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>364</v>
@@ -13903,7 +14054,7 @@
         <v>333</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>365</v>
@@ -13920,7 +14071,7 @@
         <v>334</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>366</v>
@@ -13981,7 +14132,7 @@
         <v>140</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -13992,7 +14143,7 @@
         <v>141</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -14003,7 +14154,7 @@
         <v>142</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -14014,7 +14165,7 @@
         <v>143</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -14025,7 +14176,7 @@
         <v>144</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -14036,7 +14187,7 @@
         <v>145</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -14047,7 +14198,7 @@
         <v>146</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -14058,7 +14209,7 @@
         <v>147</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -14069,7 +14220,7 @@
         <v>148</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -14080,7 +14231,7 @@
         <v>149</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -14091,7 +14242,7 @@
         <v>150</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -14102,7 +14253,7 @@
         <v>151</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -14113,7 +14264,7 @@
         <v>152</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -14124,7 +14275,7 @@
         <v>153</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -14135,7 +14286,7 @@
         <v>154</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -14146,7 +14297,7 @@
         <v>155</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -14157,7 +14308,7 @@
         <v>156</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -14168,7 +14319,7 @@
         <v>157</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -14179,7 +14330,7 @@
         <v>158</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -14190,7 +14341,7 @@
         <v>159</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -14201,7 +14352,7 @@
         <v>160</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -14212,7 +14363,7 @@
         <v>161</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -14223,7 +14374,7 @@
         <v>162</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -14234,7 +14385,7 @@
         <v>163</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -19114,6 +19265,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
